--- a/Translations/en-da-FoodNinja-ContentThemeList.xlsx
+++ b/Translations/en-da-FoodNinja-ContentThemeList.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of fruits and vegetables. Complexity of task escalates with advancing level: at the beginning the focus is on the fruits and the vegetables alone, then playing with their colours is introduced.</t>
+          <t>Search for the fruits and vegetables! Slice them to earn points and learn about their nutritional value and colourful palette, how many you should consume daily, and clever ways to add them in your diet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fortrolighed med madgruppen af frugter og grøntsager. Opgavenes kompleksitet eskalerer med det fremskridende niveau: I begyndelsen er fokus på frugterne og grøntsagerne alene og derefter introduceres leg med deres farver.</t>
+          <t>Søg efter frugter og grøntsager! Skær dem i skiver for at optjene point og lær om deres ernæringsmæssige værdi og farverige palet, hvor mange du bør indtage dagligt og smarte måder at tilføje dem i din kost.</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Your task is to slice only the fruits you see.</t>
+          <t>Your task is to slice the fruits!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Din opgave er kun at skære de frugter, du ser.</t>
+          <t>Din opgave er at skære frugterne!</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruits are among the foods it is recommended you consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
+          <t>Fruits are among the foods you should consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Frugter er blandt de fødevarer, det anbefales, at du forbruger dagligt. Generelt er 2-3 frugter om dagen dit ultimative mål. At vælge en frugt som en snack, i skolen eller om eftermiddagen, hjælper dig med at nå dit daglige mål. For at gøre det skal du prioritere frugten: Spis først frugten, så alt andet!</t>
+          <t>Frugt er blandt de fødevarer, du bør indtage på daglig basis. Generelt er 2-3 frugter om dagen dit ultimative mål. At vælge en frugt som snack, i skolen eller om eftermiddagen, vil hjælpe dig med at nå dit daglige mål. For at gøre det, giv frugt en prioritet: Spis først frugten, så alt andet!</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Your task is to slice only the veggies you see.</t>
+          <t>Your task is to slice the vegetables !</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Din opgave er kun at skære de grøntsager, du ser.</t>
+          <t>Din opgave er at skære grøntsagerne i skiver!</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegetables, like fruits, are also recommended to be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with veggies!</t>
+          <t>Vegetables, like fruits, should be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with vegetables!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Grøntsager, som frugter, anbefales også at blive konsumeret på daglig basis. De kan serveres som en salat eller endda som en hovedret. For at opfylde dit daglige mål skal du ledsage dine vigtigste måltider med grøntsager!</t>
+          <t>Grøntsager, ligesom frugt, bør indtages på daglig basis. De kan serveres som salat eller endda som hovedret. For at nå dit daglige mål skal du ledsage dine hovedmåltider med grøntsager!</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Your task is to slice only the F&amp;V with red colour.</t>
+          <t>Your task is to slice the fruits anf vegetables with red colour!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Din opgave er kun at skære F&amp;V med rød farve.</t>
+          <t>Din opgave er at skære frugter og grøntsager i skiver med rød farve!</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of dairy products. The complexity of the task increases with each level: first, the focus is on identifying and slicing common dairy products; then, learners move on to slicing the image that shows the recommended daily consumption of dairy products; finally, they identify and slice the image that highlights the key nutrient found in dairies, i.e. calcium.</t>
+          <t>Search for the dairy products! Slice them to earn points and learn about their key nutrients, how many you should consume daily, their serving size, and clever ways to add them in your diet..</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fortrolighed med madgruppen af mejeriprodukter. Opgavenes kompleksitet øges med hvert niveau: For det første er fokus på at identificere og skære fælles mejeriprodukter; Derefter går eleverne videre til at skære det billede, der viser det anbefalede daglige forbrug af mejeriprodukter; Endelig identificerer de og skiver det billede, der fremhæver det nøgle næringsstof, der findes i mejerier, dvs. calcium.</t>
+          <t>Søg efter mejeriprodukterne! Skær dem i skiver for at optjene point og lær om deres vigtigste næringsstoffer, hvor mange du bør indtage dagligt, deres portionsstørrelse og smarte måder at tilføje dem til din kost.</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Your task is to slice only the dairy products you see.</t>
+          <t>Your task is to slice the dairy products!</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Din opgave er kun at skære de mejeriprodukter, du ser.</t>
+          <t>Din opgave er at skære mejeriprodukterne i skiver!</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Make dairies a daily habit! Include them early in your day and build healthy habits that last!</t>
+          <t>Make dairy products a daily habit! Include them early in your day and build healthy habits that last!</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Gør mejerier til en daglig vane! Medtag dem tidligt i din dag og opbyg sunde vaner, der varer!</t>
+          <t>Gør mejeriprodukter til en daglig vane! Inkluder dem tidligt i din dag, og opbyg sunde vaner, der holder!</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dairy products like milk, yogurt, and cheese are foods recommended for daily consumption because they provide key nutrients for your growth and development.</t>
+          <t>Dairy products like milk, yogurt, and cheese are foods you shoulod consume daily because they provide key nutrients for your growth and development.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Mejeriprodukter som mælk, yoghurt og ost er fødevarer, der anbefales til det daglige forbrug, fordi de leverer nøgle næringsstoffer til din vækst og udvikling.</t>
+          <t>Mejeriprodukter som mælk, yoghurt og ost er fødevarer, du bør indtage dagligt, fordi de giver vigtige næringsstoffer til din vækst og udvikling.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Your task is to slice only the recommended daily consumption of dairy products you see.</t>
+          <t>Your task is to slice the recommended daily consumption of dairy products!</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Din opgave er kun at skære det anbefalede daglige forbrug af mejeriprodukter, du ser.</t>
+          <t>Din opgave er at skære det anbefalede daglige forbrug af mejeriprodukter i skiver!</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Go with dairies every day!</t>
+          <t>Go with dairy products every day!</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Gå med mejerier hver dag!</t>
+          <t>Gå med mejeriprodukter hver dag!</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy option to stay strong and healthy!</t>
+          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy product boption to stay strong and healthy!</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>For at nå målet om 3-4 portioner mejeriprodukter om dagen, kan du prøve at inkludere et glas mælk med morgenmad, yoghurt som en snack eller ost med din frokost eller middag. Gør det til en vane - par dine måltider eller snacks med en mejeriindstilling for at forblive stærk og sund!</t>
+          <t>For at nå målet om 3-4 portioner mejeriprodukter om dagen, prøv at inkludere et glas mælk til morgenmaden, yoghurt som snack eller ost til din frokost eller aftensmad. Gør det til en vane - sæt dine måltider eller snacks sammen med et mejeriprodukt for at forblive stærk og sund!</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Your task is to identify what counts as one portion of a dairy product. Select all the items that represent a standard dairy portion.</t>
+          <t xml:space="preserve">Your task is to slice what counts as one portion of a dairy product. </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Din opgave er at identificere, hvad der tæller som en del af et mejeriprodukt. Vælg alle de varer, der repræsenterer en standard mejeri -del.</t>
+          <t>Din opgave er at skære, hvad der tæller som én portion af et mejeriprodukt.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Your task is to slice only the key nutrient found in dairy products. Note that: Ca: calcium, Fe: Iron.</t>
+          <t>Your task is to slice the key nutrient found in dairy products! Note that: Ca: calcium, Fe: Iron, vE: vitamin E.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Din opgave er kun at skære det centrale næringsstof, der findes i mejeriprodukter. Bemærk, at: CA: Calcium, Fe: jern.</t>
+          <t>Din opgave er at skære det vigtigste næringsstof, der findes i mejeriprodukter! Bemærk at: Ca: calcium, Fe: Jern, ve: E-vitamin.</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dairy products are one of the best sources of calcium (Ca), which helps build strong bones and teeth.</t>
+          <t>Dairy products are one of the best sources of calcium , which helps build strong bones and teeth.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Mejeriprodukter er en af de bedste kilder til calcium (CA), som hjælper med at opbygge stærke knogler og tænder.</t>
+          <t>Mejeriprodukter er en af ​​de bedste kilder til calcium, som hjælper med at opbygge stærke knogler og tænder.</t>
         </is>
       </c>
     </row>
